--- a/01_data/신원몰/woman/20201223여성정보고시.xlsx
+++ b/01_data/신원몰/woman/20201223여성정보고시.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_WORK\00_github\imageMaking\01_data\woman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ImageMaking\01_data\신원몰\woman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E3BC8-3983-4A1C-89B9-D0EEF345F17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="26010" windowHeight="11385" xr2:uid="{093F9F25-6D2D-4302-A1CD-6F41B74603DF}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="26010" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="남성정보고시" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">남성정보고시!$A$1:$AF$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
   <si>
     <t>품번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -375,9 +374,6 @@
   </si>
   <si>
     <t>카라 니트 포멀 플레어 원피스 (SBOCZ2965)</t>
-  </si>
-  <si>
-    <t>BK(블랙)/PI(핑크)</t>
   </si>
   <si>
     <t>[겉감]아크릴47%폴리에스터30%나일론23%</t>
@@ -647,14 +643,14 @@
 86.7</t>
   </si>
   <si>
-    <t>ABCDE0000</t>
+    <t>BK(블랙)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -939,9 +935,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="쉼표 [0] 3" xfId="1" xr:uid="{C1E2181F-9A7B-46F0-A7F0-AD7268E6B8F4}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{B01A47F1-6721-4067-8616-BDF131922C06}"/>
+    <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1281,13 +1277,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA646BDA-3614-494B-AB8F-08EB03B748C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1646,7 +1642,7 @@
         <v>88</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>80</v>
@@ -1658,13 +1654,13 @@
         <v>76</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>48</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>19</v>
@@ -1679,10 +1675,10 @@
         <v>85</v>
       </c>
       <c r="R5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>86</v>
@@ -1718,10 +1714,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>80</v>
@@ -1733,13 +1729,13 @@
         <v>46</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>19</v>
@@ -1751,28 +1747,28 @@
         <v>82</v>
       </c>
       <c r="Q6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="S6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="T6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="U6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>102</v>
-      </c>
       <c r="V6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y6" s="15"/>
     </row>
@@ -1793,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>44</v>
@@ -1808,7 +1804,7 @@
         <v>46</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>67</v>
@@ -1820,19 +1816,19 @@
         <v>19</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>71</v>
       </c>
       <c r="R7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="T7" s="15" t="s">
         <v>55</v>
@@ -1856,7 +1852,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>63</v>
@@ -1868,10 +1864,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>44</v>
@@ -1889,40 +1885,40 @@
         <v>67</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>77</v>
       </c>
       <c r="Q8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="S8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="S8" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="T8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y8" s="15"/>
     </row>
@@ -1931,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>75</v>
@@ -1943,10 +1939,10 @@
         <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>44</v>
@@ -1958,13 +1954,13 @@
         <v>46</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>48</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>19</v>
@@ -1979,10 +1975,10 @@
         <v>60</v>
       </c>
       <c r="R9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="T9" s="15" t="s">
         <v>55</v>
@@ -2006,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>75</v>
@@ -2018,10 +2014,10 @@
         <v>35</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>44</v>
@@ -2033,13 +2029,13 @@
         <v>46</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>48</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>19</v>
@@ -2054,10 +2050,10 @@
         <v>60</v>
       </c>
       <c r="R10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="T10" s="15" t="s">
         <v>55</v>
@@ -2081,7 +2077,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>75</v>
@@ -2093,7 +2089,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>83</v>
@@ -2108,13 +2104,13 @@
         <v>46</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>19</v>
@@ -2126,28 +2122,28 @@
         <v>51</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="S11" s="15" t="s">
-        <v>132</v>
-      </c>
       <c r="T11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y11" s="15"/>
     </row>
@@ -2156,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>75</v>
@@ -2168,10 +2164,10 @@
         <v>39</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>44</v>
@@ -2183,31 +2179,31 @@
         <v>46</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>48</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="Q12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R12" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="S12" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="T12" s="15" t="s">
         <v>55</v>
@@ -2226,90 +2222,29 @@
       </c>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="1:32" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="13">
-        <v>169000</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>55</v>
-      </c>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF2" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:AF2">
     <filterColumn colId="18" showButton="0"/>
     <filterColumn colId="19" showButton="0"/>
     <filterColumn colId="20" showButton="0"/>
     <filterColumn colId="21" showButton="0"/>
     <filterColumn colId="22" showButton="0"/>
     <filterColumn colId="23" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF23">
+    <sortState ref="A2:AF23">
       <sortCondition sortBy="cellColor" ref="F1:F23" dxfId="2"/>
     </sortState>
   </autoFilter>
